--- a/inboundsToTest.xlsx
+++ b/inboundsToTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,15 +563,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TMU106465694</t>
+          <t>TMU106868726</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10000000855404</v>
+        <v>10000000872900</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TMU106465694</t>
+          <t>TMU106868726</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -595,36 +595,36 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="I2" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M2" t="n">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-08-10T23:00:04.606098</t>
+          <t>2024-08-15T23:00:04.983542</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2024-08-10T02:00:00</t>
+          <t>2024-08-15T02:00:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2024-08-10T03:00:00</t>
+          <t>2024-08-15T03:00:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>TM53197480</t>
+          <t>TM53398996</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279916, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050274432, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295249, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050289579, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -665,22 +665,22 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279916&amp;inboundId=10000000855404</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295249&amp;inboundId=10000000872900</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TMU106685780</t>
+          <t>TMU107122130</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10000000856311</v>
+        <v>10000000873930</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TMU106685780</t>
+          <t>TMU107122130</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -695,45 +695,45 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B969HC06</t>
+          <t>Р530КУ40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BE346516</t>
+          <t>BB955616</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>139</v>
+      </c>
+      <c r="I3" t="n">
+        <v>139</v>
+      </c>
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-08-10T23:30:03.651056</t>
+          <t>2024-08-15T23:30:03.618989</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2024-08-10T02:30:00</t>
+          <t>2024-08-15T02:30:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2024-08-10T03:30:00</t>
+          <t>2024-08-15T03:30:00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Дарин Дмитрий</t>
+          <t>Биткинин Динар</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>TM53307523</t>
+          <t>TM53525701</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279936, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050276502, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295265, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291848, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -774,22 +774,22 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279936&amp;inboundId=10000000856311</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295265&amp;inboundId=10000000873930</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TMU106665176</t>
+          <t>TMU107048076</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10000000858581</v>
+        <v>10000000872595</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TMU106665176</t>
+          <t>TMU107048076</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -804,55 +804,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A264EE252</t>
+          <t>C236TM790</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>EC259977</t>
+          <t>EY669450</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>114</v>
+        <v>1736</v>
       </c>
       <c r="I4" t="n">
-        <v>114</v>
+        <v>1742</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>122</v>
+        <v>2195</v>
       </c>
       <c r="M4" t="n">
-        <v>122</v>
+        <v>2226</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-08-11T00:00:07.384953</t>
+          <t>2024-08-16T00:30:05.312013</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2024-08-10T03:00:00</t>
+          <t>2024-08-15T03:30:00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2024-08-10T04:00:00</t>
+          <t>2024-08-15T04:30:00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>СЦ Чебоксары</t>
+          <t>ООО «Маркет.Операции» (Московская область, Софьино)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Исраилов Идрис</t>
+          <t>Иванчиков Александр</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>TM53297221</t>
+          <t>TM53488671</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279949, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050276529, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295300, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050288889, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -880,29 +880,25 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2024-08-10T03:00:06.323191</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279949&amp;inboundId=10000000858581</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295300&amp;inboundId=10000000872595</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TMU106665184</t>
+          <t>TMU107048078</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10000000855670</v>
+        <v>10000000872601</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TMU106665184</t>
+          <t>TMU107048078</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -917,55 +913,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A264EE252</t>
+          <t>C236TM790</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EC259977</t>
+          <t>EY669450</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="I5" t="n">
-        <v>364</v>
+        <v>204</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" t="n">
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="M5" t="n">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-08-11T00:00:06.90871</t>
+          <t>2024-08-16T00:30:07.241336</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2024-08-10T03:00:00</t>
+          <t>2024-08-15T03:30:00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2024-08-10T04:00:00</t>
+          <t>2024-08-15T04:30:00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Склад, СЦ МК Нижний Новгород</t>
+          <t>ООО «Маркет.Операции» (Софьино КГТ)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Исраилов Идрис</t>
+          <t>Иванчиков Александр</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -980,12 +976,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>TM53297225</t>
+          <t>TM53488672</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279955, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050275982, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295298, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050289459, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -993,29 +989,25 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>2024-08-10T03:00:06.314888</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279955&amp;inboundId=10000000855670</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295298&amp;inboundId=10000000872601</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TMU107023048</t>
+          <t>TMU107067692</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10000000859992</v>
+        <v>10000000872892</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TMU107023048</t>
+          <t>TMU107067692</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1030,55 +1022,55 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>E029YA790</t>
+          <t>P768CA40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EK623250</t>
+          <t>BH815316</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2091</v>
+        <v>150</v>
       </c>
       <c r="I6" t="n">
-        <v>2094</v>
+        <v>150</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>2110</v>
+        <v>154</v>
       </c>
       <c r="M6" t="n">
-        <v>2113</v>
+        <v>154</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-08-11T00:00:07.774114</t>
+          <t>2024-08-16T00:30:07.583466</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2024-08-10T03:00:00</t>
+          <t>2024-08-15T04:00:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2024-08-10T04:00:00</t>
+          <t>2024-08-15T04:20:00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Склад СЦ Яндекс Маркет Тарный</t>
+          <t>СЦ МК Ижевск</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Седов Юрий</t>
+          <t>Неизвестный Александр</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1093,12 +1085,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>TM53476157</t>
+          <t>TM53498482</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279954, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050273443, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295299, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291389, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1106,29 +1098,25 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2024-08-10T03:00:06.332235</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279954&amp;inboundId=10000000859992</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295299&amp;inboundId=10000000872892</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TMU106633720</t>
+          <t>TMU107516788</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10000000855084</v>
+        <v>10000000880974</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TMU106633720</t>
+          <t>TMU107516788</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1143,55 +1131,55 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C236TM790</t>
+          <t>M750BX164</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EY669450</t>
+          <t>BA290864</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>156</v>
+        <v>519</v>
       </c>
       <c r="I7" t="n">
-        <v>157</v>
+        <v>519</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="M7" t="n">
-        <v>184</v>
+        <v>552</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-08-11T00:30:04.394198</t>
+          <t>2024-08-16T01:00:04.646794</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2024-08-10T03:30:00</t>
+          <t>2024-08-15T04:00:00</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2024-08-10T04:30:00</t>
+          <t>2024-08-15T05:00:00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>ООО «Маркет.Операции» (Софьино КГТ)</t>
+          <t>Склад, СЦ МК Нижний Новгород</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Иванчиков Александр</t>
+          <t>Титов Александр</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1206,12 +1194,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>TM53281493</t>
+          <t>TM53722591</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279966, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050274229, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295312, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291804, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1222,22 +1210,22 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279966&amp;inboundId=10000000855084</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295312&amp;inboundId=10000000880974</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TMU106633722</t>
+          <t>TMU107098774</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10000000855079</v>
+        <v>10000000873795</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TMU106633722</t>
+          <t>TMU107098774</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1252,55 +1240,55 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C236TM790</t>
+          <t>A004MB252</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>EY669450</t>
+          <t>EC271077</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1658</v>
+        <v>3113</v>
       </c>
       <c r="I8" t="n">
-        <v>1661</v>
+        <v>3112</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L8" t="n">
-        <v>2115</v>
+        <v>4307</v>
       </c>
       <c r="M8" t="n">
-        <v>2128</v>
+        <v>4337</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-08-11T00:30:03.610465</t>
+          <t>2024-08-16T01:30:05.491434</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2024-08-10T03:30:00</t>
+          <t>2024-08-15T04:30:00</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2024-08-10T04:30:00</t>
+          <t>2024-08-15T05:30:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>ООО «Маркет.Операции» (Московская область, Софьино)</t>
+          <t>ООО «Маркет.Операции» (Россия, Самара)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Иванчиков Александр</t>
+          <t>Лазорский Дмитрий</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1315,12 +1303,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>TM53281494</t>
+          <t>TM53514020</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279970, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050273583, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295327, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291825, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1331,22 +1319,22 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279970&amp;inboundId=10000000855079</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295327&amp;inboundId=10000000873795</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TMU106633724</t>
+          <t>TMU107098778</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10000000855069</v>
+        <v>10000000873383</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TMU106633724</t>
+          <t>TMU107098778</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1361,55 +1349,55 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C236TM790</t>
+          <t>A004MB252</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>EY669450</t>
+          <t>EC271077</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1596</v>
+        <v>1417</v>
       </c>
       <c r="I9" t="n">
-        <v>1596</v>
+        <v>1418</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L9" t="n">
-        <v>1869</v>
+        <v>1445</v>
       </c>
       <c r="M9" t="n">
-        <v>1870</v>
+        <v>1446</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-08-11T00:30:02.836128</t>
+          <t>2024-08-16T01:30:03.833014</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2024-08-10T03:30:00</t>
+          <t>2024-08-15T04:30:00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2024-08-10T04:30:00</t>
+          <t>2024-08-15T05:30:00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Яндекс.Маркет (Софьино Суперсклад)</t>
+          <t>ООО «Маркет.Операции» (Самара)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Иванчиков Александр</t>
+          <t>Лазорский Дмитрий</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1424,12 +1412,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>TM53281495</t>
+          <t>TM53514022</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279969, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050273558, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295323, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291365, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1440,22 +1428,22 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279969&amp;inboundId=10000000855069</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295323&amp;inboundId=10000000873383</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TMU106647236</t>
+          <t>TMU106878840</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10000000857718</v>
+        <v>10000000883638</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TMU106647236</t>
+          <t>TMU106878840</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1463,62 +1451,54 @@
           <t>FIXED</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LINEHAUL</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P868PX40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AK709840</t>
-        </is>
-      </c>
+          <t>X259OT797</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="I10" t="n">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="M10" t="n">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-08-11T00:30:04.662194</t>
+          <t>2024-08-16T16:00:34.178427</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2024-08-10T04:00:00</t>
+          <t>2024-08-15T10:00:00</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2024-08-10T04:20:00</t>
+          <t>2024-08-15T20:00:00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>СЦ МК Набережные Челны</t>
+          <t>Пункт выдачи заказов Яндекс Маркета</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Аббясов Ринат</t>
+          <t>Гилязетдинов Марат</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1533,12 +1513,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>TM53288251</t>
+          <t>TM53404053</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279967, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050276324, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050297737, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1546,25 +1526,29 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2024-08-15T17:15:05.352275</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279967&amp;inboundId=10000000857718</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050297737&amp;inboundId=10000000883638</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TMU106647270</t>
+          <t>TMU107078824</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10000000855388</v>
+        <v>10000000883333</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TMU106647270</t>
+          <t>TMU107078824</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1572,62 +1556,54 @@
           <t>FIXED</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LINEHAUL</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P868PX40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AK709840</t>
-        </is>
-      </c>
+          <t>P420KK116</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-08-11T00:30:04.49567</t>
+          <t>2024-08-16T16:00:31.476421</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2024-08-10T04:00:00</t>
+          <t>2024-08-15T10:00:00</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2024-08-10T04:20:00</t>
+          <t>2024-08-15T20:00:00</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>СЦ МК Ижевск</t>
+          <t>Пункт выдачи заказов Яндекс Маркета</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Аббясов Ринат</t>
+          <t>Бряхчин Артем</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1642,12 +1618,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>TM53288268</t>
+          <t>TM53504045</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>[{'id': 10000050279968, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050274691, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050297728, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1655,25 +1631,29 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2024-08-16T02:45:01.643625</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050279968&amp;inboundId=10000000855388</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050297728&amp;inboundId=10000000883333</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TMU106797390</t>
+          <t>TMU107115668</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10000000856236</v>
+        <v>10000000883238</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TMU106797390</t>
+          <t>TMU107115668</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1681,62 +1661,54 @@
           <t>FIXED</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LINEHAUL</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>M303BO12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>AB306512</t>
-        </is>
-      </c>
+          <t>B100KY797</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>3004</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>3004</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4191</v>
+        <v>18</v>
       </c>
       <c r="M12" t="n">
-        <v>4217</v>
+        <v>19</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-08-11T01:30:04.501486</t>
+          <t>2024-08-16T16:00:29.300032</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2024-08-10T04:30:00</t>
+          <t>2024-08-15T10:00:00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2024-08-10T05:30:00</t>
+          <t>2024-08-15T20:00:00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>ООО «Маркет.Операции» (Россия, Самара)</t>
+          <t>Пункт выдачи заказов Яндекс Маркета</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Яндемеров Иван</t>
+          <t>Устабаши Константин</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1751,12 +1723,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>TM53363279</t>
+          <t>TM53522467</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[{'id': 10000050280007, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050276508, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050297731, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1764,25 +1736,29 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2024-08-16T02:45:01.559734</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050280007&amp;inboundId=10000000856236</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050297731&amp;inboundId=10000000883238</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TMU105524802</t>
+          <t>TMU107126870</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10000000865698</v>
+        <v>10000000883205</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TMU105524802</t>
+          <t>TMU107126870</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1793,51 +1769,51 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>E229AP116</t>
+          <t>C473EM716</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="I13" t="n">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="M13" t="n">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-08-11T14:10:13.162208</t>
+          <t>2024-08-16T15:09:09.276111</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2024-08-10T10:00:00</t>
+          <t>2024-08-15T10:00:00</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T20:00:00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>ООО Волга</t>
+          <t>Горячев Максим Сергеевич</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Амиров Адель</t>
+          <t>Дедаев Алексей</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1852,12 +1828,12 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>TM52727034</t>
+          <t>TM53528068</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282022, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050297535, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1867,27 +1843,27 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2024-08-10T15:00:05.879057</t>
+          <t>2024-08-15T17:00:07.930486</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282022&amp;inboundId=10000000865698</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050297535&amp;inboundId=10000000883205</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TMU106651278</t>
+          <t>TMU107349420</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10000000865265</v>
+        <v>10000000882600</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TMU106651278</t>
+          <t>TMU107349420</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1898,51 +1874,51 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T600BM116</t>
+          <t>A886EC797</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-08-11T16:00:19.309795</t>
+          <t>2024-08-16T11:51:06.013668</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2024-08-10T10:00:00</t>
+          <t>2024-08-15T10:00:00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T20:00:00</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>ИП Фахардынов Руслан Робертович</t>
+          <t>ИП Галимарданова Юлия Андреевна</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Камалиев Азат</t>
+          <t>Арутюнян Гамлет</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1957,12 +1933,12 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>TM53290272</t>
+          <t>TM53639343</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282471, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050296562, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1972,27 +1948,27 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2024-08-10T16:30:04.396582</t>
+          <t>2024-08-15T17:45:03.473148</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282471&amp;inboundId=10000000865265</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050296562&amp;inboundId=10000000882600</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TMU106660300</t>
+          <t>TMU107200064</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10000000865231</v>
+        <v>10000000880690</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TMU106660300</t>
+          <t>TMU107200064</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2001,55 +1977,47 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>A886EC797</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-08-11T16:00:19.220223</t>
+          <t>2024-08-16T05:00:05.411907</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2024-08-10T10:00:00</t>
+          <t>2024-08-15T11:00:00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T19:00:00</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>ИП "Кабулов А.А."</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Арутюнян Гамлет</t>
-        </is>
-      </c>
+          <t>Румянцева Дания Азатовна</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2062,12 +2030,12 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>TM53294783</t>
+          <t>TM53564665</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282472, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295807, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2077,27 +2045,27 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2024-08-10T18:00:05.727304</t>
+          <t>2024-08-15T16:30:02.904852</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282472&amp;inboundId=10000000865231</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295807&amp;inboundId=10000000880690</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TMU106851216</t>
+          <t>TMU107216434</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10000000864766</v>
+        <v>10000000882974</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TMU106851216</t>
+          <t>TMU107216434</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2106,14 +2074,10 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Y421OP797</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
         <v>11</v>
@@ -2125,36 +2089,32 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
         <v>11</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-08-11T07:29:15.137349</t>
+          <t>2024-08-16T05:00:06.242254</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2024-08-10T10:00:00</t>
+          <t>2024-08-15T11:00:00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T19:00:00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Алиева Альфия Рашидовна</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Даньшин Сергей</t>
-        </is>
-      </c>
+          <t>Ромашка Ульяна Васильевна</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2167,12 +2127,12 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>TM53390241</t>
+          <t>TM53572850</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>[{'id': 10000050280467, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295876, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2182,27 +2142,27 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2024-08-10T16:00:04.765084</t>
+          <t>2024-08-15T16:00:06.827478</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050280467&amp;inboundId=10000000864766</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295876&amp;inboundId=10000000882974</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TMU106859766</t>
+          <t>TMU107245392</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10000000864725</v>
+        <v>10000000882897</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TMU106859766</t>
+          <t>TMU107245392</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2211,17 +2171,13 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A886EC797</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2230,36 +2186,32 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M17" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-08-11T16:00:17.026102</t>
+          <t>2024-08-16T05:00:06.199559</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2024-08-10T10:00:00</t>
+          <t>2024-08-15T11:00:00</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T19:00:00</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ИП Паксялина Альбина Анасовна</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Арутюнян Гамлет</t>
-        </is>
-      </c>
+          <t>Ахметов Ильшат Ильфатович</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2272,12 +2224,12 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>TM53394516</t>
+          <t>TM53587329</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282467, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050295886, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2287,27 +2239,27 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2024-08-10T18:00:05.626253</t>
+          <t>2024-08-15T15:00:07.104907</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282467&amp;inboundId=10000000864725</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050295886&amp;inboundId=10000000882897</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TMU106906688</t>
+          <t>TMU107424388</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10000000864571</v>
+        <v>10000000877761</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TMU106906688</t>
+          <t>TMU107424388</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2315,54 +2267,62 @@
           <t>FIXED</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LINEHAUL</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B950EK797</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>C167AH716</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>BH709216</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>1360</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>1362</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L18" t="n">
-        <v>16</v>
+        <v>1395</v>
       </c>
       <c r="M18" t="n">
-        <v>17</v>
+        <v>1397</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-08-11T16:00:15.994746</t>
+          <t>2024-08-16T12:00:05.03142</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2024-08-10T10:00:00</t>
+          <t>2024-08-15T15:00:00</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T16:00:00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ИП "Кабулов А.А."</t>
+          <t>Склад СЦ Яндекс Маркет Тарный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Тумашкин Максим</t>
+          <t>Журавлев Леонид</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2377,12 +2337,12 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>TM53417977</t>
+          <t>TM53676827</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282466, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'type': 'TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050296591, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050290209, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2390,29 +2350,25 @@
           <t>DS_SC</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>2024-08-10T19:15:02.262639</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282466&amp;inboundId=10000000864571</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050296591&amp;inboundId=10000000877761</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMU106673884</t>
+          <t>TMU107104910</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10000000855912</v>
+        <v>10000000873436</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TMU106673884</t>
+          <t>TMU107104910</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2427,45 +2383,45 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>E649CB750</t>
+          <t>E990EO716</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>KA465150</t>
+          <t>BH710316</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1385</v>
+        <v>4174</v>
       </c>
       <c r="I19" t="n">
-        <v>1393</v>
+        <v>4177</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K19" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L19" t="n">
-        <v>1473</v>
+        <v>4289</v>
       </c>
       <c r="M19" t="n">
-        <v>1483</v>
+        <v>4292</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-08-11T17:00:11.233753</t>
+          <t>2024-08-16T17:00:05.570117</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T20:00:00</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2024-08-10T21:00:00</t>
+          <t>2024-08-15T21:00:00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2475,7 +2431,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Таруть Сергей</t>
+          <t>Давлетшин Руслан</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2490,12 +2446,12 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>TM53301575</t>
+          <t>TM53517088</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282658, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050276596, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050298062, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291362, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2505,27 +2461,27 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:03.936745</t>
+          <t>2024-08-15T20:00:06.803468</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282658&amp;inboundId=10000000855912</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050298062&amp;inboundId=10000000873436</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TMU106673894</t>
+          <t>TMU107104904</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10000000855913</v>
+        <v>10000000873440</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TMU106673894</t>
+          <t>TMU107104904</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2540,45 +2496,45 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P244EY40</t>
+          <t>T759PE750</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BH688216</t>
+          <t>BY128316</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3156</v>
+        <v>819</v>
       </c>
       <c r="I20" t="n">
-        <v>3157</v>
+        <v>820</v>
       </c>
       <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
         <v>23</v>
       </c>
-      <c r="K20" t="n">
-        <v>32</v>
-      </c>
       <c r="L20" t="n">
-        <v>3234</v>
+        <v>872</v>
       </c>
       <c r="M20" t="n">
-        <v>3235</v>
+        <v>874</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-08-11T17:00:12.975112</t>
+          <t>2024-08-16T20:00:05.224763</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2024-08-10T20:00:00</t>
+          <t>2024-08-15T23:00:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2024-08-10T21:00:00</t>
+          <t>2024-08-16T00:00:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2588,7 +2544,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Рамазанов Рафаэль</t>
+          <t>Матанский Владимир</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2603,12 +2559,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>TM53301580</t>
+          <t>TM53517085</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>[{'id': 10000050282661, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050275984, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
+          <t>[{'id': 10000050298309, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050291732, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2619,116 +2575,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282661&amp;inboundId=10000000855913</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>TMU106673910</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10000000855911</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>TMU106673910</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>FIXED</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>LINEHAUL</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B239BM977</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>EC971477</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1974</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1948</v>
-      </c>
-      <c r="J21" t="n">
-        <v>17</v>
-      </c>
-      <c r="K21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2039</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2015</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2024-08-11T17:00:08.109755</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2024-08-10T20:00:00</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>2024-08-10T21:00:00</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>СЦ Дзержинский</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Вранчан Валерий</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>TM53301588</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>[{'id': 10000050282659, 'type': 'DISCREPANCY_ACT', 'args': [], 'status': 'OK'}, {'id': 10000050276445, 'type': 'DIGITAL_TRANSFER_ACT', 'args': [], 'status': 'OK'}]</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>DS_SC</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050282659&amp;inboundId=10000000855911</t>
+          <t>https://logistics.market.yandex.ru/api/sorting-center/1100000040/inbounds/document?type=DISCREPANCY_ACT&amp;id=10000050298309&amp;inboundId=10000000873440</t>
         </is>
       </c>
     </row>
